--- a/cs_app/data/df_s_imperv.xlsx
+++ b/cs_app/data/df_s_imperv.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,23 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>runoff</t>
-  </si>
-  <si>
-    <t>peak_runoff_rate</t>
-  </si>
-  <si>
-    <t>infiltration</t>
-  </si>
-  <si>
-    <t>evaporation</t>
   </si>
   <si>
     <t>Destore-Imperv</t>
@@ -34,8 +25,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,17 +85,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +138,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -176,6 +172,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -210,9 +207,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,108 +383,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1701.5821946323281</v>
       </c>
       <c r="B2">
-        <v>1701.582194632328</v>
-      </c>
-      <c r="C2">
-        <v>0.8660485406317805</v>
-      </c>
-      <c r="D2">
-        <v>6531.097978622704</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
         <v>1.27</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1654.711724505444</v>
       </c>
       <c r="B3">
-        <v>1654.711724505444</v>
-      </c>
-      <c r="C3">
-        <v>0.8459744338625963</v>
-      </c>
-      <c r="D3">
-        <v>6531.097978622704</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
         <v>2.54</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1560.9684179246169</v>
       </c>
       <c r="B4">
-        <v>1560.968417924617</v>
-      </c>
-      <c r="C4">
-        <v>0.7884343097878881</v>
-      </c>
-      <c r="D4">
-        <v>6531.097978622704</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>5.08</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1467.229444481392</v>
       </c>
       <c r="B5">
-        <v>1467.229444481392</v>
-      </c>
-      <c r="C5">
-        <v>0.7131727582361697</v>
-      </c>
-      <c r="D5">
-        <v>6531.097978622704</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>7.619999999999999</v>
+        <v>7.6199999999999992</v>
       </c>
     </row>
   </sheetData>
